--- a/HTML.xlsx
+++ b/HTML.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\BalticTalents kurso medžiaga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,12 @@
   <sheets>
     <sheet name="HTML &lt;tagai&gt;" sheetId="2" r:id="rId1"/>
     <sheet name="img + text align horizontal" sheetId="9" r:id="rId2"/>
-    <sheet name="NET" sheetId="10" r:id="rId3"/>
-    <sheet name="VISI būdai" sheetId="7" r:id="rId4"/>
-    <sheet name="wordpress" sheetId="8" r:id="rId5"/>
-    <sheet name="CSS float" sheetId="5" r:id="rId6"/>
-    <sheet name="img fit" sheetId="6" r:id="rId7"/>
-    <sheet name="img" sheetId="4" r:id="rId8"/>
-    <sheet name="Tautv.Dulsk." sheetId="3" r:id="rId9"/>
+    <sheet name="VISI būdai" sheetId="7" r:id="rId3"/>
+    <sheet name="wordpress" sheetId="8" r:id="rId4"/>
+    <sheet name="CSS float" sheetId="5" r:id="rId5"/>
+    <sheet name="img fit" sheetId="6" r:id="rId6"/>
+    <sheet name="img" sheetId="4" r:id="rId7"/>
+    <sheet name="Tautv.Dulsk." sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'HTML &lt;tagai&gt;'!$B$2:$S$18</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="241">
   <si>
     <t>&lt;address&gt;</t>
   </si>
@@ -1102,39 +1101,6 @@
   </si>
   <si>
     <t>FAILAI</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>gavėo adreasa</t>
-  </si>
-  <si>
-    <t>siuntėjo adreasa</t>
-  </si>
-  <si>
-    <t>www.lrytas.lt</t>
-  </si>
-  <si>
-    <t>routeris (mašrutizatorius)</t>
-  </si>
-  <si>
-    <t>užklausa keliauja į DNS serverį, kuris duoda www.lrytas.lt IP dresą</t>
-  </si>
-  <si>
-    <t>užklausa siunčiama paketais, paketas susideda iš siuntėjo ir gavėjo IP adresų</t>
-  </si>
-  <si>
-    <t>DNS serverio duotas IP adresas</t>
-  </si>
-  <si>
-    <t>interneto tiekėjo suteiktas išorinis IP dresas</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1554,6 +1520,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1571,13 +1541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2618,82 +2581,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F6"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="98" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="98"/>
-      <c r="D6" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:C6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
@@ -2728,7 +2618,7 @@
       <c r="D3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="92" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2739,7 +2629,7 @@
       <c r="D4" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -2748,7 +2638,7 @@
       <c r="D5" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -2757,7 +2647,7 @@
       <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -2766,7 +2656,7 @@
       <c r="D7" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="84"/>
@@ -3006,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -3025,13 +2915,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="97"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="74" t="s">
         <v>173</v>
       </c>
@@ -3269,7 +3159,7 @@
       <c r="D31" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="95" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3277,19 +3167,19 @@
       <c r="D32" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="94"/>
+      <c r="E32" s="96"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="94"/>
+      <c r="E33" s="96"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="E34" s="95"/>
+      <c r="E34" s="97"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
@@ -3346,7 +3236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -3821,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Y14"/>
   <sheetViews>
@@ -4018,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -4065,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
